--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/Settings.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/Settings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-AUTO-MASTER180320\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-71620\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>As a user i want to verify change user login password</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Case</t>
   </si>
@@ -47,29 +44,79 @@
     <t>Update_Password_query</t>
   </si>
   <si>
-    <t>azeem1969</t>
-  </si>
-  <si>
     <t>pakistan1</t>
   </si>
   <si>
-    <t>Update DC_CUSTOMER_INFO d SET D.LOGIN_PASSWORD= '$2a$31$/X5tDPefefOhOzzU5U7a4e25j9rW8Hd/f0.ddthMr6vdRaJfnE8/6' where D.CUSTOMER_NAME= 'AZEEM1969'</t>
-  </si>
-  <si>
-    <t>query1</t>
-  </si>
-  <si>
-    <t>query2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select Max(TRANSACTION_ID) from DC_TRANSACTION I where I.CUSTOMER_INFO_ID ='1483947320' and I.TRANSACTION_TYPE_ID='75 '
-order by CREATED_ON DESC </t>
-  </si>
-  <si>
-    <t>Select TRANSACTION_TYPE_ID, RESPONSE_MESSAGE from DC_TRANSACTION I where I.TRANSACTION_ID='2183662786'</t>
-  </si>
-  <si>
-    <t>pakistan2</t>
+    <t>password_policy_query</t>
+  </si>
+  <si>
+    <t>Select PARAMTER_VALUE from DC_APPLICATION_PARAM_DETAIL P where P.PARAMETER_NAME ='LOGIN_PSWD_POLICY_DESC'</t>
+  </si>
+  <si>
+    <t>You have successfully changed your login password. Please login</t>
+  </si>
+  <si>
+    <t>success_message</t>
+  </si>
+  <si>
+    <t>pakistan3</t>
+  </si>
+  <si>
+    <t>YASIR113</t>
+  </si>
+  <si>
+    <t>Begin Update DC_CUSTOMER_INFO d SET D.LOGIN_PASSWORD= '$2a$31$/X5tDPefefOhOzzU5U7a4e25j9rW8Hd/f0.ddthMr6vdRaJfnE8/6' where D.CUSTOMER_NAME= '{customer_name}';COMMIT;END;</t>
+  </si>
+  <si>
+    <t>password_change_req_query</t>
+  </si>
+  <si>
+    <t>select IS_PASSWORD_CHANGED_REQUIRED from dc_customer_info P where P.CNIC ='{customer_name}'</t>
+  </si>
+  <si>
+    <t>IS_PASSWORD_RESET_REQUIRED</t>
+  </si>
+  <si>
+    <t>select IS_PASSWORD_RESET_REQUIRED from dc_customer_info P where P.CNIC ='{customer_name}'</t>
+  </si>
+  <si>
+    <t>LAST_PASSWORD_CHANGED</t>
+  </si>
+  <si>
+    <t>LGN_PWD_CHANGED_POPUP_COUNT</t>
+  </si>
+  <si>
+    <t>tran_type_query</t>
+  </si>
+  <si>
+    <t>SELECT AC.DESCRIPTION FROM DC_TRANSACTION_ACTIVITY_CONFIG AC WHERE AC.TRANSACTION_TYPE_ID =(SELECT DT.TRANSACTION_TYPE_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>Select RESPONSE_MESSAGE FROM DC_TRANSACTION DT WHERE DT.CHANNEL_ID='2'and  DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>success_message_query</t>
+  </si>
+  <si>
+    <t>tran_date_query</t>
+  </si>
+  <si>
+    <t>Select CREATED_ON FROM DC_TRANSACTION DT WHERE DT.CHANNEL_ID='2'and  DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>db_val</t>
+  </si>
+  <si>
+    <t>DIGITAL_CHANNEL_SEC</t>
+  </si>
+  <si>
+    <t>select LAST_PASSWORD_CHANGED from dc_customer_info P where P.CUSTOMER_NAME ='{customer_name}'</t>
+  </si>
+  <si>
+    <t>select LGN_PWD_CHANGED_POPUP_COUNT from dc_customer_info P whereP.CUSTOMER_NAME ='{customer_name}'</t>
+  </si>
+  <si>
+    <t>(DELETED CASE) As a user i want to verify change user login password (DELETED CASE)</t>
   </si>
 </sst>
 </file>
@@ -105,11 +152,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,78 +437,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="72.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="191" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="95" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="95" style="2" customWidth="1"/>
+    <col min="9" max="9" width="115.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="99.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="107.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="185.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="102.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.140625" style="3"/>
+    <col min="19" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="D2" s="2">
+        <v>12345</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
-        <v>12345</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
+      <c r="K2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>